--- a/data/prompt_engineering/gpt_files/GPT_subset_triples_prompt1_param0_0.xlsx
+++ b/data/prompt_engineering/gpt_files/GPT_subset_triples_prompt1_param0_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Workspace\SCAI_code\data\prompt_engineering\gpt_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD704A-19BE-4623-8932-BF959131DEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40962F5E-6BFF-454B-AEB1-F4FC412B870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2933,7 +2933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2942,10 +2942,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2983,11 +2994,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3295,8 +3307,8 @@
   </sheetPr>
   <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,7 +3316,7 @@
     <col min="1" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
